--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>267085.3338387941</v>
+        <v>264384.1171873371</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673425</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -662,16 +662,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>19.9894699021032</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015061</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>237.9688518868388</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>124.0182950532139</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>173.655475418199</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>65.77030295285029</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>241.3109897375547</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>262.4370253346128</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.41899097776993</v>
+        <v>12.41899097776992</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>309.9416328899765</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863689</v>
+        <v>99.30025118863668</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>383.6877278154312</v>
+        <v>8.312012538750045</v>
       </c>
     </row>
     <row r="6">
@@ -978,19 +978,19 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8005767399402</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333227</v>
+        <v>97.33388804333224</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1023,16 +1023,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0237294698459</v>
+        <v>143.0237294698458</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9455960238326</v>
+        <v>193.9455960238325</v>
       </c>
       <c r="U6" t="n">
-        <v>168.9292975067545</v>
+        <v>158.7608692779942</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>144.9494784981233</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>85.82538108525603</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>119.1307056315183</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4735595059547</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.4186055422208</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2484721153922</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>35.9524543521409</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -1184,22 +1184,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>108.0032363430129</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>8.906162259191587</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -1345,16 +1345,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>220.9176303731477</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>315.3998342615219</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393747</v>
+        <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.14662204184563</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.88510599615216</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544491</v>
+        <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
         <v>250.959002459687</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>51.71709185164079</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.757564313352</v>
+        <v>134.7575643133521</v>
       </c>
       <c r="H12" t="n">
-        <v>87.2605838181255</v>
+        <v>87.26058381812553</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530785</v>
+        <v>10.48847705530794</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1537,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.81330679905243</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920368</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
         <v>218.682419239904</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>126.3484970555248</v>
+        <v>30.05706037504287</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417146</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428134</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>80.56978887874787</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560572</v>
       </c>
     </row>
     <row r="18">
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326504049</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>19.91555826189092</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187875</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2248,10 +2248,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>115.4764219077158</v>
+        <v>99.9742741983392</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2485,13 +2485,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>99.97427419833748</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>227.3193523853183</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2716,16 +2716,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699817</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>41.02686156550205</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187869</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,13 +2956,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>146.5235739004484</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634796</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3193,16 +3193,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833818</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>66.25628701154714</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,10 +3235,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3424,19 +3424,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503964</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>6.434538210426839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3557,10 +3557,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3664,10 +3664,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>4.019807611472247</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>6.228861054224221</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>108.3764982651488</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4028,7 +4028,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>114.282116088006</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,10 +4141,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4183,10 +4183,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>41.02686156550183</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574.0438072739746</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="C2" t="n">
-        <v>574.0438072739746</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="D2" t="n">
-        <v>553.8524235344764</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="E2" t="n">
-        <v>553.8524235344764</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="F2" t="n">
-        <v>287.4747669672984</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
         <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
         <v>704.5463761991316</v>
@@ -4358,22 +4358,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>840.4214638411526</v>
+        <v>801.1705019471535</v>
       </c>
       <c r="V2" t="n">
-        <v>840.4214638411526</v>
+        <v>801.1705019471535</v>
       </c>
       <c r="W2" t="n">
-        <v>840.4214638411526</v>
+        <v>801.1705019471535</v>
       </c>
       <c r="X2" t="n">
-        <v>574.0438072739746</v>
+        <v>534.7928453799755</v>
       </c>
       <c r="Y2" t="n">
-        <v>574.0438072739746</v>
+        <v>294.4202677165019</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.09711040012049</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="C3" t="n">
-        <v>21.09711040012049</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="D3" t="n">
-        <v>21.09711040012049</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="E3" t="n">
-        <v>21.09711040012049</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="F3" t="n">
-        <v>21.09711040012049</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012049</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957468</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M3" t="n">
-        <v>503.6022960313625</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4431,28 +4431,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="U3" t="n">
-        <v>826.7196740428381</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="V3" t="n">
-        <v>651.3101029133441</v>
+        <v>652.7312295849119</v>
       </c>
       <c r="W3" t="n">
-        <v>397.0727461851425</v>
+        <v>398.4938728567103</v>
       </c>
       <c r="X3" t="n">
-        <v>397.0727461851425</v>
+        <v>398.4938728567103</v>
       </c>
       <c r="Y3" t="n">
-        <v>189.3124474201885</v>
+        <v>190.7335740917564</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167.9870578980309</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C4" t="n">
-        <v>167.9870578980309</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D4" t="n">
-        <v>167.9870578980309</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E4" t="n">
-        <v>167.9870578980309</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287944</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551007</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4513,25 +4513,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>848.0684854165359</v>
+        <v>988.4208705587013</v>
       </c>
       <c r="T4" t="n">
-        <v>848.0684854165359</v>
+        <v>762.9518343167156</v>
       </c>
       <c r="U4" t="n">
-        <v>848.0684854165359</v>
+        <v>496.5741777495375</v>
       </c>
       <c r="V4" t="n">
-        <v>593.383997210649</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="W4" t="n">
-        <v>349.6355227282705</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="X4" t="n">
-        <v>349.6355227282705</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="Y4" t="n">
-        <v>349.6355227282705</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>794.4188945618823</v>
+        <v>821.826293395717</v>
       </c>
       <c r="C5" t="n">
-        <v>794.4188945618823</v>
+        <v>821.826293395717</v>
       </c>
       <c r="D5" t="n">
-        <v>794.4188945618823</v>
+        <v>463.5605947889665</v>
       </c>
       <c r="E5" t="n">
-        <v>408.6306419636381</v>
+        <v>463.5605947889665</v>
       </c>
       <c r="F5" t="n">
-        <v>143.5427375852414</v>
+        <v>456.6150940397631</v>
       </c>
       <c r="G5" t="n">
-        <v>130.9983022541606</v>
+        <v>444.0706587086823</v>
       </c>
       <c r="H5" t="n">
         <v>130.9983022541606</v>
       </c>
       <c r="I5" t="n">
-        <v>30.6950182252345</v>
+        <v>30.69501822523462</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275147</v>
+        <v>93.76641159275209</v>
       </c>
       <c r="K5" t="n">
-        <v>239.0325989245562</v>
+        <v>239.0325989245575</v>
       </c>
       <c r="L5" t="n">
-        <v>456.1499114825633</v>
+        <v>456.1499114825656</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748862</v>
+        <v>729.4041931748894</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.69382320238</v>
+        <v>1011.693823202384</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798413</v>
+        <v>1264.916654798419</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189411</v>
+        <v>1446.535482189416</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261725</v>
+        <v>1534.750911261731</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261725</v>
+        <v>1534.750911261731</v>
       </c>
       <c r="S5" t="n">
-        <v>1534.750911261725</v>
+        <v>1534.750911261731</v>
       </c>
       <c r="T5" t="n">
-        <v>1534.750911261725</v>
+        <v>1534.750911261731</v>
       </c>
       <c r="U5" t="n">
-        <v>1534.750911261725</v>
+        <v>1534.750911261731</v>
       </c>
       <c r="V5" t="n">
-        <v>1534.750911261725</v>
+        <v>1203.688023918161</v>
       </c>
       <c r="W5" t="n">
-        <v>1181.982255991611</v>
+        <v>1203.688023918161</v>
       </c>
       <c r="X5" t="n">
-        <v>1181.982255991611</v>
+        <v>830.2222656570807</v>
       </c>
       <c r="Y5" t="n">
-        <v>794.4188945618823</v>
+        <v>821.826293395717</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>561.6533442265428</v>
+        <v>129.0120768548632</v>
       </c>
       <c r="C6" t="n">
-        <v>561.6533442265428</v>
+        <v>129.0120768548632</v>
       </c>
       <c r="D6" t="n">
-        <v>412.7189345652915</v>
+        <v>129.0120768548632</v>
       </c>
       <c r="E6" t="n">
-        <v>412.7189345652915</v>
+        <v>129.0120768548632</v>
       </c>
       <c r="F6" t="n">
-        <v>266.1843765921765</v>
+        <v>129.0120768548632</v>
       </c>
       <c r="G6" t="n">
-        <v>129.0120768548631</v>
+        <v>129.0120768548632</v>
       </c>
       <c r="H6" t="n">
-        <v>30.6950182252345</v>
+        <v>30.69501822523462</v>
       </c>
       <c r="I6" t="n">
-        <v>30.6950182252345</v>
+        <v>30.69501822523462</v>
       </c>
       <c r="J6" t="n">
-        <v>174.272186062639</v>
+        <v>49.44206107563467</v>
       </c>
       <c r="K6" t="n">
-        <v>284.4686930039495</v>
+        <v>388.9600665101455</v>
       </c>
       <c r="L6" t="n">
-        <v>478.9640368353015</v>
+        <v>583.4554103414981</v>
       </c>
       <c r="M6" t="n">
-        <v>725.2877975060475</v>
+        <v>829.7791710122449</v>
       </c>
       <c r="N6" t="n">
-        <v>992.5396600782699</v>
+        <v>1097.031033584468</v>
       </c>
       <c r="O6" t="n">
-        <v>1214.803107243788</v>
+        <v>1319.294480749987</v>
       </c>
       <c r="P6" t="n">
-        <v>1478.34742594867</v>
+        <v>1478.347425948676</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261725</v>
+        <v>1534.750911261731</v>
       </c>
       <c r="R6" t="n">
-        <v>1534.750911261725</v>
+        <v>1534.750911261731</v>
       </c>
       <c r="S6" t="n">
-        <v>1390.28249765582</v>
+        <v>1390.282497655826</v>
       </c>
       <c r="T6" t="n">
-        <v>1194.377855207504</v>
+        <v>1194.37785520751</v>
       </c>
       <c r="U6" t="n">
-        <v>1023.742201160277</v>
+        <v>1034.013340785294</v>
       </c>
       <c r="V6" t="n">
-        <v>1023.742201160277</v>
+        <v>798.8612325535514</v>
       </c>
       <c r="W6" t="n">
-        <v>769.5048444320756</v>
+        <v>544.6238758253498</v>
       </c>
       <c r="X6" t="n">
-        <v>561.6533442265428</v>
+        <v>336.7723756198171</v>
       </c>
       <c r="Y6" t="n">
-        <v>561.6533442265428</v>
+        <v>129.0120768548632</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>327.2252722821393</v>
+        <v>117.3873223517559</v>
       </c>
       <c r="C7" t="n">
-        <v>327.2252722821393</v>
+        <v>117.3873223517559</v>
       </c>
       <c r="D7" t="n">
-        <v>177.1086328698035</v>
+        <v>117.3873223517559</v>
       </c>
       <c r="E7" t="n">
-        <v>177.1086328698035</v>
+        <v>117.3873223517559</v>
       </c>
       <c r="F7" t="n">
-        <v>30.6950182252345</v>
+        <v>117.3873223517559</v>
       </c>
       <c r="G7" t="n">
-        <v>30.6950182252345</v>
+        <v>117.3873223517559</v>
       </c>
       <c r="H7" t="n">
-        <v>30.6950182252345</v>
+        <v>30.69501822523462</v>
       </c>
       <c r="I7" t="n">
-        <v>30.6950182252345</v>
+        <v>30.69501822523462</v>
       </c>
       <c r="J7" t="n">
-        <v>30.6950182252345</v>
+        <v>30.69501822523462</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4322756223268</v>
+        <v>157.4322756223272</v>
       </c>
       <c r="L7" t="n">
-        <v>375.138765583039</v>
+        <v>375.1387655830398</v>
       </c>
       <c r="M7" t="n">
-        <v>615.0688576388154</v>
+        <v>615.0688576388166</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974827</v>
+        <v>854.7285647974842</v>
       </c>
       <c r="O7" t="n">
-        <v>1060.076798891672</v>
+        <v>1060.076798891674</v>
       </c>
       <c r="P7" t="n">
-        <v>1212.267005934022</v>
+        <v>1212.267005934024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1234.200536495184</v>
+        <v>1234.200536495187</v>
       </c>
       <c r="R7" t="n">
-        <v>1234.200536495184</v>
+        <v>1113.866490402744</v>
       </c>
       <c r="S7" t="n">
-        <v>1030.691890529574</v>
+        <v>1113.866490402744</v>
       </c>
       <c r="T7" t="n">
-        <v>1030.691890529574</v>
+        <v>889.2012322792885</v>
       </c>
       <c r="U7" t="n">
-        <v>1030.691890529574</v>
+        <v>600.0613614556601</v>
       </c>
       <c r="V7" t="n">
-        <v>776.0074023236867</v>
+        <v>345.3768732497732</v>
       </c>
       <c r="W7" t="n">
-        <v>776.0074023236867</v>
+        <v>345.3768732497732</v>
       </c>
       <c r="X7" t="n">
-        <v>548.0178514256694</v>
+        <v>117.3873223517559</v>
       </c>
       <c r="Y7" t="n">
-        <v>327.2252722821393</v>
+        <v>117.3873223517559</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1688.365042002428</v>
+        <v>880.645441216167</v>
       </c>
       <c r="C8" t="n">
-        <v>1688.365042002428</v>
+        <v>880.645441216167</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.099343395678</v>
+        <v>880.645441216167</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974335</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2184.059060190806</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V8" t="n">
-        <v>2184.059060190806</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>2184.059060190806</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X8" t="n">
-        <v>2184.059060190806</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="Y8" t="n">
-        <v>2074.96488206655</v>
+        <v>880.645441216167</v>
       </c>
     </row>
     <row r="9">
@@ -4878,10 +4878,10 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
         <v>298.3188265310613</v>
@@ -4893,10 +4893,10 @@
         <v>956.284402521753</v>
       </c>
       <c r="N9" t="n">
-        <v>1565.661695681274</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>518.2127024906389</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="C10" t="n">
-        <v>349.2765195627319</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="D10" t="n">
-        <v>199.1598801503962</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234359</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.838891429094</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1216.838891429094</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V10" t="n">
-        <v>962.1544032232072</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W10" t="n">
-        <v>962.1544032232072</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="X10" t="n">
-        <v>739.005281634169</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="Y10" t="n">
-        <v>518.2127024906389</v>
+        <v>60.24291006213602</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1923.274119841216</v>
+        <v>1872.090169197691</v>
       </c>
       <c r="C11" t="n">
-        <v>1554.311602900804</v>
+        <v>1553.504478024437</v>
       </c>
       <c r="D11" t="n">
-        <v>1196.045904294054</v>
+        <v>1195.238779417687</v>
       </c>
       <c r="E11" t="n">
-        <v>1196.045904294054</v>
+        <v>809.4505268194423</v>
       </c>
       <c r="F11" t="n">
-        <v>785.0599995044463</v>
+        <v>809.4505268194423</v>
       </c>
       <c r="G11" t="n">
-        <v>370.4442349455923</v>
+        <v>394.8347622605878</v>
       </c>
       <c r="H11" t="n">
-        <v>77.53766591592078</v>
+        <v>101.9281932309163</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706895</v>
+        <v>304.4060796706888</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656962</v>
+        <v>695.1615405656953</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.83000462533</v>
+        <v>1216.830004625328</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087832</v>
+        <v>1828.956123087829</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484044</v>
+        <v>2455.60089048404</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535298</v>
+        <v>3033.988513535293</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479997</v>
+        <v>3493.127967479993</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464063</v>
+        <v>3789.749829464058</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796039</v>
+        <v>3876.883295796034</v>
       </c>
       <c r="S11" t="n">
-        <v>3876.883295796039</v>
+        <v>3776.999350345375</v>
       </c>
       <c r="T11" t="n">
-        <v>3672.904689377403</v>
+        <v>3573.020743926739</v>
       </c>
       <c r="U11" t="n">
-        <v>3419.410747498932</v>
+        <v>3319.526802048268</v>
       </c>
       <c r="V11" t="n">
-        <v>3088.347860155361</v>
+        <v>2988.463914704697</v>
       </c>
       <c r="W11" t="n">
-        <v>2735.579204885247</v>
+        <v>2635.695259434583</v>
       </c>
       <c r="X11" t="n">
-        <v>2362.113446624167</v>
+        <v>2262.229501173503</v>
       </c>
       <c r="Y11" t="n">
-        <v>2309.873959905338</v>
+        <v>1872.090169197691</v>
       </c>
     </row>
     <row r="12">
@@ -5106,34 +5106,34 @@
         <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722696</v>
+        <v>312.3928428722697</v>
       </c>
       <c r="G12" t="n">
         <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390851</v>
+        <v>88.13208718390848</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870415</v>
+        <v>193.8410919870411</v>
       </c>
       <c r="K12" t="n">
-        <v>193.8410919870415</v>
+        <v>470.7769964046652</v>
       </c>
       <c r="L12" t="n">
-        <v>488.5008422034049</v>
+        <v>889.4740370626166</v>
       </c>
       <c r="M12" t="n">
-        <v>996.4574081599335</v>
+        <v>996.4574081599364</v>
       </c>
       <c r="N12" t="n">
-        <v>1532.266717861144</v>
+        <v>1532.266717861146</v>
       </c>
       <c r="O12" t="n">
-        <v>2000.207762193667</v>
+        <v>2000.207762193669</v>
       </c>
       <c r="P12" t="n">
         <v>2356.438638438442</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>539.5481420186015</v>
+        <v>374.5442528261667</v>
       </c>
       <c r="C13" t="n">
-        <v>539.5481420186015</v>
+        <v>374.5442528261667</v>
       </c>
       <c r="D13" t="n">
-        <v>389.4315026062658</v>
+        <v>224.427613413831</v>
       </c>
       <c r="E13" t="n">
-        <v>389.4315026062658</v>
+        <v>224.427613413831</v>
       </c>
       <c r="F13" t="n">
-        <v>389.4315026062658</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="G13" t="n">
-        <v>221.933519417454</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="J13" t="n">
-        <v>136.855221875865</v>
+        <v>136.8552218758646</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648147</v>
+        <v>364.1690246648141</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344815</v>
+        <v>710.5788654344806</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.20859537694</v>
+        <v>1086.208595376939</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336948</v>
+        <v>1458.341306336947</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818666</v>
+        <v>1786.049800818664</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010724</v>
+        <v>2042.940349010722</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742809</v>
+        <v>2137.362968742807</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742809</v>
+        <v>2056.743466925582</v>
       </c>
       <c r="S13" t="n">
-        <v>1949.247121276105</v>
+        <v>1868.627619458878</v>
       </c>
       <c r="T13" t="n">
-        <v>1728.355788710546</v>
+        <v>1647.736286893319</v>
       </c>
       <c r="U13" t="n">
-        <v>1439.264095659996</v>
+        <v>1358.644593842769</v>
       </c>
       <c r="V13" t="n">
-        <v>1184.579607454109</v>
+        <v>1103.960105636882</v>
       </c>
       <c r="W13" t="n">
-        <v>895.1624374171488</v>
+        <v>814.5429355999215</v>
       </c>
       <c r="X13" t="n">
-        <v>667.1728865191315</v>
+        <v>586.5533847019042</v>
       </c>
       <c r="Y13" t="n">
-        <v>539.5481420186015</v>
+        <v>556.1927176564064</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406472</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L15" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M15" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N15" t="n">
-        <v>1470.207143961552</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2022.116874200839</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2445.740023695907</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797748</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,61 +5501,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014782</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355941</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068014</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466578</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123007</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852893</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591813</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="O18" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400795</v>
       </c>
       <c r="C19" t="n">
-        <v>391.8463960427007</v>
+        <v>391.8463960427008</v>
       </c>
       <c r="D19" t="n">
         <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814783026</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038413</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797815</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910816</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570825</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.08939327981</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853369</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580268</v>
       </c>
       <c r="R19" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832671</v>
       </c>
       <c r="S19" t="n">
-        <v>2243.991523718103</v>
+        <v>2197.062545487575</v>
       </c>
       <c r="T19" t="n">
-        <v>2024.390058741044</v>
+        <v>1977.461080510516</v>
       </c>
       <c r="U19" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854714</v>
       </c>
       <c r="V19" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648827</v>
       </c>
       <c r="W19" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611866</v>
       </c>
       <c r="X19" t="n">
-        <v>963.2236229443772</v>
+        <v>916.2946447138489</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703192</v>
       </c>
     </row>
     <row r="20">
@@ -5729,58 +5729,58 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466574</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L21" t="n">
-        <v>429.5088224239596</v>
+        <v>924.8344286397187</v>
       </c>
       <c r="M21" t="n">
-        <v>1026.887310050512</v>
+        <v>1522.212916266271</v>
       </c>
       <c r="N21" t="n">
-        <v>1654.485273605118</v>
+        <v>1522.212916266271</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2074.122646505558</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2497.745796000626</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,43 +5884,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400722</v>
       </c>
       <c r="C22" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121654</v>
       </c>
       <c r="D22" t="n">
-        <v>377.6556127449246</v>
+        <v>194.8007783998297</v>
       </c>
       <c r="E22" t="n">
-        <v>377.655612744926</v>
+        <v>194.8007783998297</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
         <v>2035.089393279803</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138421</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.3568999154069</v>
+        <v>695.502065570312</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5975,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5990,25 +5990,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>721.7774158311364</v>
+        <v>513.8536007400705</v>
       </c>
       <c r="C25" t="n">
-        <v>552.8412329032295</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998279</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998279</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y25" t="n">
-        <v>903.4258806613761</v>
+        <v>695.5020655703103</v>
       </c>
     </row>
     <row r="26">
@@ -6215,37 +6215,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6309,10 +6309,10 @@
         <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>710.2486053718725</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.627092998424</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536378</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>197.0043242297716</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6394,10 +6394,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583877</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="29">
@@ -6461,19 +6461,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>139.234765840794</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>634.5603720565526</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.868625753638</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6637,7 +6637,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
         <v>1948.813509611463</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6777,22 +6777,22 @@
         <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>214.9229991561138</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>710.2486053718725</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>916.3099000622258</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>747.3737171343189</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>597.2570777219831</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>449.3439841395904</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F34" t="n">
-        <v>302.45403664168</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797186</v>
@@ -6859,7 +6859,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L34" t="n">
         <v>826.1405381797742</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2379.917379832662</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2090.84215317686</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1097.958364892465</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,16 +6932,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6977,7 +6977,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7017,25 +7017,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>214.9229991561138</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>710.2486053718725</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,46 +7069,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>733.4550657171305</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C37" t="n">
-        <v>564.5188827892237</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>414.4022433768879</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y37" t="n">
-        <v>915.1035305473703</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="38">
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,16 +7248,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M39" t="n">
         <v>1140.291933891999</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876686</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835333</v>
+        <v>411.9631215597617</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711975</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888044</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>402.724593490894</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7348,34 +7348,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W40" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614385</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179083</v>
       </c>
     </row>
     <row r="41">
@@ -7400,19 +7400,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M42" t="n">
-        <v>692.9625378792909</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N42" t="n">
-        <v>1320.560501433898</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1872.470231673185</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2296.093381168253</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2529.355041543135</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>916.3099000622258</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C43" t="n">
-        <v>747.373717134319</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832662</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.84215317686</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y43" t="n">
-        <v>1097.958364892465</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="44">
@@ -7640,16 +7640,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7667,13 +7667,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,10 +7719,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7731,22 +7731,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7822,34 +7822,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703104</v>
       </c>
     </row>
   </sheetData>
@@ -8061,13 +8061,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>97.32166909127241</v>
       </c>
       <c r="M3" t="n">
-        <v>71.18793141915882</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>26.13373767211337</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438637005</v>
+        <v>34.43939438636968</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>231.6378772658585</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>105.546841925448</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8541,19 +8541,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>224.3355197601777</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>305.1601501039158</v>
+        <v>211.0329012241558</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>49.87305750948565</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184546</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615206</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>334.5208468044128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927372</v>
+        <v>90.25352389927376</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905234</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>92.23615629656996</v>
+        <v>188.5275929770519</v>
       </c>
     </row>
     <row r="14">
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-1.324854244680804e-12</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>62.35543909864991</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>145.1398665102893</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>46.45968844822289</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.45968844823074</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>29.94462611521547</v>
+        <v>45.44677382459204</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24373,13 +24373,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459376</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>24.81829093850969</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,16 +24604,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>43.26526345294951</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>176.3785887617862</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24844,13 +24844,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>65.54986409393055</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>139.9994244361426</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25081,16 +25081,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>99.2678512807217</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25123,10 +25123,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25312,19 +25312,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>46.45968844823144</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>139.9994244361423</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>144.5956654067401</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.2941372823668</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>40.23897475306357</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25834,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>65.54986409393125</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,10 +26029,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26071,10 +26071,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>139.9994244361428</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>962735.0649619251</v>
+        <v>962735.0649619246</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1059659.627002218</v>
+        <v>1059659.627002217</v>
       </c>
     </row>
     <row r="11">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>369468.7964389276</v>
+      </c>
+      <c r="C2" t="n">
         <v>369468.7964389275</v>
       </c>
-      <c r="C2" t="n">
-        <v>369468.7964389276</v>
-      </c>
       <c r="D2" t="n">
-        <v>369468.7964389274</v>
+        <v>369468.7964389272</v>
       </c>
       <c r="E2" t="n">
-        <v>329665.1599234786</v>
+        <v>329665.1599234784</v>
       </c>
       <c r="F2" t="n">
-        <v>363215.9698605029</v>
+        <v>363215.9698605028</v>
       </c>
       <c r="G2" t="n">
-        <v>363215.9698605026</v>
+        <v>363215.9698605028</v>
       </c>
       <c r="H2" t="n">
-        <v>363215.9698605026</v>
+        <v>363215.9698605028</v>
       </c>
       <c r="I2" t="n">
         <v>363215.9698605027</v>
@@ -26341,19 +26341,19 @@
         <v>363215.9698605028</v>
       </c>
       <c r="L2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605026</v>
       </c>
       <c r="M2" t="n">
         <v>363215.9698605028</v>
       </c>
       <c r="N2" t="n">
-        <v>363215.9698605026</v>
+        <v>363215.9698605028</v>
       </c>
       <c r="O2" t="n">
+        <v>363215.9698605025</v>
+      </c>
+      <c r="P2" t="n">
         <v>363215.9698605028</v>
-      </c>
-      <c r="P2" t="n">
-        <v>363215.9698605026</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657071</v>
+        <v>132804.2190657089</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929375</v>
+        <v>265413.0723929357</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.157354578</v>
+        <v>313577.1573545769</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704282</v>
+        <v>189308.26877043</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911409</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.42926417426</v>
+        <v>30877.42926417465</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.34502049557</v>
+        <v>65018.34502049515</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.403712731</v>
+        <v>81897.40371273069</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202347</v>
+        <v>49839.57413202397</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>251227.3656190198</v>
       </c>
       <c r="C4" t="n">
-        <v>215494.7982664854</v>
+        <v>215494.7982664849</v>
       </c>
       <c r="D4" t="n">
         <v>140338.6838374607</v>
@@ -26430,10 +26430,10 @@
         <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179345</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.0322517935</v>
+        <v>11167.03225179347</v>
       </c>
       <c r="I4" t="n">
         <v>11167.03225179351</v>
@@ -26442,13 +26442,13 @@
         <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.0322517935</v>
       </c>
       <c r="L4" t="n">
         <v>11167.03225179356</v>
       </c>
       <c r="M4" t="n">
-        <v>11167.03225179354</v>
+        <v>11167.03225179353</v>
       </c>
       <c r="N4" t="n">
         <v>11167.03225179353</v>
@@ -26457,7 +26457,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
-        <v>11167.03225179354</v>
+        <v>11167.03225179351</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.65038667494</v>
+        <v>72593.65038667507</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738573</v>
+        <v>85137.48506738563</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-624894.3529755516</v>
       </c>
       <c r="C6" t="n">
-        <v>-51423.87127993983</v>
+        <v>-51423.87127994133</v>
       </c>
       <c r="D6" t="n">
-        <v>-129220.7322313155</v>
+        <v>-129220.7322313139</v>
       </c>
       <c r="E6" t="n">
-        <v>-80111.09619063218</v>
+        <v>-80332.22750460581</v>
       </c>
       <c r="F6" t="n">
-        <v>61618.13901437404</v>
+        <v>61583.40108893636</v>
       </c>
       <c r="G6" t="n">
-        <v>250926.4077848018</v>
+        <v>250891.6698593666</v>
       </c>
       <c r="H6" t="n">
-        <v>250926.407784802</v>
+        <v>250891.6698593665</v>
       </c>
       <c r="I6" t="n">
-        <v>250926.4077848022</v>
+        <v>250891.6698593666</v>
       </c>
       <c r="J6" t="n">
-        <v>181927.253365688</v>
+        <v>181892.5154402523</v>
       </c>
       <c r="K6" t="n">
-        <v>220048.9785206278</v>
+        <v>220014.2405951918</v>
       </c>
       <c r="L6" t="n">
-        <v>185908.0627643065</v>
+        <v>185873.324838871</v>
       </c>
       <c r="M6" t="n">
-        <v>169029.0040720711</v>
+        <v>168994.2661466358</v>
       </c>
       <c r="N6" t="n">
-        <v>201086.8336527785</v>
+        <v>201052.0957273425</v>
       </c>
       <c r="O6" t="n">
-        <v>250926.4077848021</v>
+        <v>250891.6698593661</v>
       </c>
       <c r="P6" t="n">
-        <v>250926.407784802</v>
+        <v>250891.6698593665</v>
       </c>
     </row>
   </sheetData>
@@ -26713,7 +26713,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.482815996219201e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26738,13 +26738,13 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>717.3319511695749</v>
+        <v>717.3319511695763</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.241237214951</v>
+        <v>1202.24123721495</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>383.6877278154312</v>
+        <v>383.6877278154328</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490097</v>
+        <v>969.2208239490084</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.920235783504001e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26960,19 +26960,19 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>103.2769374000966</v>
+        <v>103.2769374000979</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479643</v>
+        <v>216.7329409479628</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974119</v>
+        <v>268.1763450974108</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267227</v>
+        <v>165.7342631267243</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,49 +27009,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>119.9738478139251</v>
+        <v>119.9738478139266</v>
       </c>
       <c r="D4" t="n">
-        <v>256.8971042846076</v>
+        <v>256.897104284606</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489709</v>
+        <v>328.6359918489696</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506386</v>
+        <v>203.4874641506407</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-2.768782642777521e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139251</v>
+        <v>119.9738478139266</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846074</v>
+        <v>256.8971042846057</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489711</v>
+        <v>328.6359918489699</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506386</v>
+        <v>203.4874641506407</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.920235783504001e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139251</v>
+        <v>119.9738478139266</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846076</v>
+        <v>256.897104284606</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489709</v>
+        <v>328.6359918489696</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506386</v>
+        <v>203.4874641506407</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,16 +27382,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>334.6935717185797</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402053</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442039</v>
+        <v>149.1202946442038</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -27430,10 +27430,10 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769629</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>148.2690867692148</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>42.51488859665339</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27476,7 +27476,7 @@
         <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,19 +27503,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>59.14511173122622</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
@@ -27585,25 +27585,25 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>138.9488612907435</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.5447505011713</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>45.21200859903632</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,19 +27619,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>144.4390204070987</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9416328899766</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660375</v>
+        <v>143.3066953660374</v>
       </c>
       <c r="T5" t="n">
         <v>210.4722490968155</v>
@@ -27673,16 +27673,16 @@
         <v>251.1149531848473</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.550210840622356</v>
+        <v>377.9259261173036</v>
       </c>
     </row>
     <row r="6">
@@ -27698,22 +27698,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.2734647695173</v>
+        <v>36.2734647695172</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.36018225871382</v>
+        <v>4.360182258713635</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27749,10 +27749,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>56.91057533584726</v>
+        <v>67.07900356460755</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27777,25 +27777,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4715695248079044</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.6974299383169</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7263422083602</v>
+        <v>64.90096112310411</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5499160015377</v>
+        <v>116.5499160015376</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643536</v>
+        <v>1.905236112643365</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1307056315184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>201.4735595059546</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4186055422208</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2484721153922</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>345.9779157201209</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>278.2347023130407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>137.5278003873776</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,7 +28026,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,16 +28065,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>4.792025015889408</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-2.956856187593967e-12</v>
       </c>
     </row>
     <row r="18">
@@ -28743,7 +28743,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-12</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28965,7 +28965,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1.455191522836685e-12</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -29746,10 +29746,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>9.426059932593489e-13</v>
       </c>
       <c r="C32" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30277,10 +30277,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30748,7 +30748,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883746537365123</v>
+        <v>2.883746537365129</v>
       </c>
       <c r="H5" t="n">
-        <v>29.53316922579058</v>
+        <v>29.53316922579063</v>
       </c>
       <c r="I5" t="n">
-        <v>111.175638381769</v>
+        <v>111.1756383817692</v>
       </c>
       <c r="J5" t="n">
-        <v>244.7543826756934</v>
+        <v>244.7543826756938</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023591</v>
+        <v>366.8233736023598</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952471</v>
+        <v>455.076831695248</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791141</v>
+        <v>506.360659179115</v>
       </c>
       <c r="N5" t="n">
-        <v>514.5541040284028</v>
+        <v>514.5541040284038</v>
       </c>
       <c r="O5" t="n">
-        <v>485.8788493974783</v>
+        <v>485.8788493974792</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562767</v>
+        <v>414.6863567562775</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.4121838868882</v>
+        <v>311.4121838868888</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1461434277621</v>
+        <v>181.1461434277624</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020781</v>
+        <v>65.71337422020794</v>
       </c>
       <c r="T5" t="n">
-        <v>12.62360046731583</v>
+        <v>12.62360046731586</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306997229892098</v>
+        <v>0.2306997229892103</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542940423270406</v>
+        <v>1.54294042327041</v>
       </c>
       <c r="H6" t="n">
-        <v>14.90155619316419</v>
+        <v>14.90155619316422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189777</v>
+        <v>53.12316808189788</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7740335862624</v>
+        <v>145.7740335862627</v>
       </c>
       <c r="K6" t="n">
-        <v>249.1510419453797</v>
+        <v>249.1510419453801</v>
       </c>
       <c r="L6" t="n">
-        <v>335.0143230438662</v>
+        <v>335.0143230438668</v>
       </c>
       <c r="M6" t="n">
-        <v>390.9459133874183</v>
+        <v>390.9459133874191</v>
       </c>
       <c r="N6" t="n">
-        <v>401.2930884189116</v>
+        <v>401.2930884189124</v>
       </c>
       <c r="O6" t="n">
-        <v>367.1047769348673</v>
+        <v>367.104776934868</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190657</v>
+        <v>294.6339480190662</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9549915739558</v>
+        <v>196.9549915739561</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392931</v>
+        <v>95.7976518939295</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65944163399196</v>
+        <v>28.65944163399202</v>
       </c>
       <c r="T6" t="n">
-        <v>6.219132670989048</v>
+        <v>6.21913267098906</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1015092383730531</v>
+        <v>0.1015092383730533</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293549420141856</v>
+        <v>1.293549420141859</v>
       </c>
       <c r="H7" t="n">
-        <v>11.50083029907942</v>
+        <v>11.50083029907944</v>
       </c>
       <c r="I7" t="n">
-        <v>38.90055892572057</v>
+        <v>38.90055892572064</v>
       </c>
       <c r="J7" t="n">
-        <v>91.45394400402924</v>
+        <v>91.45394400402941</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2869235401175</v>
+        <v>150.2869235401178</v>
       </c>
       <c r="L7" t="n">
-        <v>192.3155201545447</v>
+        <v>192.3155201545451</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7697513773275</v>
+        <v>202.7697513773279</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9483399022535</v>
+        <v>197.9483399022538</v>
       </c>
       <c r="O7" t="n">
-        <v>182.8373307669599</v>
+        <v>182.8373307669603</v>
       </c>
       <c r="P7" t="n">
-        <v>156.4489225960659</v>
+        <v>156.4489225960662</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.3171246266058</v>
+        <v>108.317124626606</v>
       </c>
       <c r="R7" t="n">
-        <v>58.16268574565109</v>
+        <v>58.1626857456512</v>
       </c>
       <c r="S7" t="n">
-        <v>22.54303853101761</v>
+        <v>22.54303853101766</v>
       </c>
       <c r="T7" t="n">
-        <v>5.526983886060657</v>
+        <v>5.526983886060668</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864679</v>
+        <v>0.07055724109864693</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869146</v>
+        <v>4.833130601869142</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639241</v>
+        <v>49.49729877639236</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285605</v>
+        <v>186.3292675285603</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203918</v>
+        <v>410.2059184203915</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975129</v>
+        <v>614.7923367975123</v>
       </c>
       <c r="L11" t="n">
-        <v>762.704257454466</v>
+        <v>762.7042574544653</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954563</v>
+        <v>848.6554437954555</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180171</v>
+        <v>862.3875761180163</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956808</v>
+        <v>814.32813369568</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620361</v>
+        <v>695.0102219620354</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825971</v>
+        <v>521.9237322825967</v>
       </c>
       <c r="R11" t="n">
-        <v>303.599140169663</v>
+        <v>303.5991401696627</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900933</v>
+        <v>110.1349635900932</v>
       </c>
       <c r="T11" t="n">
-        <v>21.1570292096822</v>
+        <v>21.15702920968218</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495316</v>
+        <v>0.3866504481495313</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858574</v>
+        <v>2.585952849858572</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837097</v>
+        <v>24.97486041837094</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469214</v>
+        <v>89.03390294469206</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193138</v>
+        <v>244.3158348193136</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>417.5746757598379</v>
       </c>
       <c r="L12" t="n">
-        <v>436.1904911095342</v>
+        <v>561.4806834747745</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821483</v>
+        <v>250.1980451314323</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340509</v>
+        <v>672.5632370340502</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924477</v>
+        <v>615.2639659924471</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383448</v>
+        <v>493.8035753383443</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047542</v>
+        <v>330.0946129047538</v>
       </c>
       <c r="R12" t="n">
-        <v>160.5559146605175</v>
+        <v>160.5559146605173</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627655</v>
+        <v>48.0329399962765</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868434</v>
+        <v>10.42320468868433</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643799</v>
+        <v>0.1701284769643798</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535157</v>
+        <v>2.167976001535155</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092169</v>
+        <v>19.27527754092167</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798457</v>
+        <v>65.19695102798451</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085356</v>
+        <v>153.2759033085355</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329028</v>
+        <v>251.8793936329025</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100543</v>
+        <v>322.318904810054</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770065</v>
+        <v>339.8400926770062</v>
       </c>
       <c r="N13" t="n">
-        <v>331.759454853103</v>
+        <v>331.7594548531027</v>
       </c>
       <c r="O13" t="n">
-        <v>306.433553380624</v>
+        <v>306.4335533806237</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493066</v>
+        <v>262.2068429493063</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194576</v>
+        <v>181.5384268194574</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811714</v>
+        <v>97.48008457811706</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493541</v>
+        <v>37.78190904493538</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377488</v>
+        <v>9.26317018837748</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473724</v>
+        <v>0.1182532364473722</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>191.3323016788549</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>248.3870916262918</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,37 +32309,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>369.1789913099983</v>
       </c>
       <c r="P18" t="n">
-        <v>354.9153144485699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32503,7 +32503,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32552,31 +32552,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>349.7190218511037</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>158.84625601232</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32643,7 +32643,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,13 +32792,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33029,13 +33029,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>608.2694430035901</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>704.1404939038099</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33257,25 +33257,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>183.7183104822601</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33497,10 +33497,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>258.3858318060507</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33509,13 +33509,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>528.6300513467554</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33737,19 +33737,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>260.1710714068256</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>388.514013929771</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,19 +33968,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>440.316328560036</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>708.9385480032147</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
@@ -34220,7 +34220,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>602.8420149078241</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>169.6252075171357</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34451,13 +34451,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>191.332301678856</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34466,10 +34466,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>338.9915131655318</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34781,13 +34781,13 @@
         <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>245.5483596572287</v>
       </c>
       <c r="M3" t="n">
-        <v>263.7138800015061</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>238.3094620181791</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
         <v>171.6550983098281</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900708</v>
+        <v>63.70847814900753</v>
       </c>
       <c r="K5" t="n">
-        <v>146.7335225573785</v>
+        <v>146.7335225573792</v>
       </c>
       <c r="L5" t="n">
-        <v>219.3104167252598</v>
+        <v>219.3104167252607</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518413</v>
+        <v>276.0144259518423</v>
       </c>
       <c r="N5" t="n">
-        <v>285.1410404318119</v>
+        <v>285.1410404318129</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757916</v>
+        <v>255.7806379757925</v>
       </c>
       <c r="P5" t="n">
-        <v>183.4533610010072</v>
+        <v>183.453361001008</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.10649401243867</v>
+        <v>89.1064940124393</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>145.0274422600046</v>
+        <v>18.93640691959601</v>
       </c>
       <c r="K6" t="n">
-        <v>111.3096029710207</v>
+        <v>342.9474802368796</v>
       </c>
       <c r="L6" t="n">
-        <v>196.459943263992</v>
+        <v>196.4599432639926</v>
       </c>
       <c r="M6" t="n">
-        <v>248.8118794654</v>
+        <v>248.8118794654008</v>
       </c>
       <c r="N6" t="n">
-        <v>269.9513763355783</v>
+        <v>269.9513763355791</v>
       </c>
       <c r="O6" t="n">
-        <v>224.5085324904229</v>
+        <v>224.5085324904235</v>
       </c>
       <c r="P6" t="n">
-        <v>266.2063825301834</v>
+        <v>160.659540604736</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.97321748793425</v>
+        <v>56.97321748793462</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.0174317142346</v>
+        <v>128.0174317142349</v>
       </c>
       <c r="L7" t="n">
-        <v>219.9055454148609</v>
+        <v>219.9055454148613</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3536283391681</v>
+        <v>242.3536283391685</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0805122814821</v>
+        <v>242.0805122814824</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586809996</v>
+        <v>207.4224586809999</v>
       </c>
       <c r="P7" t="n">
-        <v>153.7274818609594</v>
+        <v>153.7274818609597</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491143</v>
+        <v>22.15508137491163</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>615.5326193530516</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>640.5848321000389</v>
+        <v>546.4575832202787</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937055</v>
+        <v>229.1600138937052</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525324</v>
+        <v>394.7024857525318</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844788</v>
+        <v>526.9378424844781</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681836</v>
+        <v>618.3092105681828</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214263</v>
+        <v>632.9745125214254</v>
       </c>
       <c r="O11" t="n">
-        <v>584.229922273994</v>
+        <v>584.2299222739932</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067666</v>
+        <v>463.7772262067659</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081476</v>
+        <v>299.6180424081472</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553091</v>
+        <v>88.01360235553062</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.4782081526471</v>
+        <v>117.4782081526469</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>279.7332367854789</v>
       </c>
       <c r="L12" t="n">
-        <v>297.63611132966</v>
+        <v>422.9263036949004</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601299</v>
+        <v>108.064011209414</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507176</v>
+        <v>541.2215249507169</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480032</v>
+        <v>472.6677215480026</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240145</v>
+        <v>359.829167924014</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187327</v>
+        <v>190.1128388187323</v>
       </c>
       <c r="R12" t="n">
-        <v>14.87641069655353</v>
+        <v>14.87641069655339</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186284</v>
+        <v>59.9167231918627</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070199</v>
+        <v>229.6099018070197</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703704</v>
+        <v>349.9089300703702</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388471</v>
+        <v>379.4239696388468</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323316</v>
+        <v>375.8916272323313</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946637</v>
+        <v>331.0186812946634</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022142001</v>
+        <v>259.4854022141998</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776323</v>
+        <v>95.37638356776306</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552157</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>108.4053175402703</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>226.5827468655539</v>
       </c>
       <c r="P18" t="n">
-        <v>220.9409070342396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326296027</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>207.1227774066593</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>18.86448192629846</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36288,7 +36288,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,13 +36440,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>140.6875824748321</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36677,13 +36677,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>469.7150632237159</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>572.7987818204766</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>45.87687150790109</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37145,10 +37145,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>120.5443928316917</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37157,13 +37157,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>397.2883392634221</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37385,19 +37385,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>122.3296324324666</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>245.9177694853266</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,19 +37616,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>302.474889585677</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>566.8045140811964</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37868,7 +37868,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>23.94570355317173</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38099,13 +38099,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>59.99058959552271</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38114,10 +38114,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>199.0097390795103</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
